--- a/results/comparison-tests.xlsx
+++ b/results/comparison-tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils\Documents\Studium\TUM\09_Masterarbeit\master-thesis-tests\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils\Documents\git\master-thesis-tests\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC55E139-D2D1-4AFB-8962-85DE562632E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C1B529-220D-42DD-B7F3-B5079F4A2156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CFE4387-6F95-4727-85FF-8CC0A5F721B3}"/>
+    <workbookView xWindow="11424" yWindow="-1968" windowWidth="19392" windowHeight="10392" xr2:uid="{7CFE4387-6F95-4727-85FF-8CC0A5F721B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Test 1</t>
   </si>
@@ -457,7 +457,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,9 +510,7 @@
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
